--- a/results/metals_results.xlsx
+++ b/results/metals_results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB126A45-5A37-7C40-9CDA-EBB447E3DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F611D9-BDB5-744C-824D-2B9D2C55C0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26460" yWindow="500" windowWidth="39580" windowHeight="26880" xr2:uid="{07822FC5-30FD-4B40-AC4B-69B005012C7B}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{07822FC5-30FD-4B40-AC4B-69B005012C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630A5746-95D9-134F-BDC4-30B5EFE40220}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="304" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results/metals_results.xlsx
+++ b/results/metals_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F611D9-BDB5-744C-824D-2B9D2C55C0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F8329-40DA-8F48-913B-C380B3091E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{07822FC5-30FD-4B40-AC4B-69B005012C7B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16980" xr2:uid="{07822FC5-30FD-4B40-AC4B-69B005012C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630A5746-95D9-134F-BDC4-30B5EFE40220}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="304" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="304" zoomScaleNormal="304" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
